--- a/Team3_TestCases_formatted.xlsx
+++ b/Team3_TestCases_formatted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms\Desktop\Programing\DEPIR2-POM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290152A4-F867-4D08-8453-12F65769F76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F108D26B-D47F-478D-B719-3293B4114A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="360">
   <si>
     <t>Summary</t>
   </si>
@@ -46,9 +46,21 @@
     <t>Assignee</t>
   </si>
   <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
     <t>Created</t>
   </si>
   <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Last Viewed</t>
+  </si>
+  <si>
     <t>Labels</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t>Status Category</t>
   </si>
   <si>
+    <t>Status Category Changed</t>
+  </si>
+  <si>
     <t>SwagLabs - Checkout Process - 'Finish' Button Should Redirect to Home Page After Order Completion</t>
   </si>
   <si>
@@ -89,6 +104,15 @@
   </si>
   <si>
     <t>12/Apr/25 6:04 AM</t>
+  </si>
+  <si>
+    <t>27/Apr/25 9:34 PM</t>
+  </si>
+  <si>
+    <t>01/May/25 2:10 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 6:08 AM</t>
   </si>
   <si>
     <t>Team3</t>
@@ -114,6 +138,9 @@
   </si>
   <si>
     <t>12/Apr/25 3:19 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:37 AM</t>
   </si>
   <si>
     <t>* Open product details from product list</t>
@@ -135,6 +162,12 @@
   </si>
   <si>
     <t>12/Apr/25 2:31 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 5:49 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 5:55 AM</t>
   </si>
   <si>
     <t>user cant check out with an empty cart</t>
@@ -164,6 +197,9 @@
     <t>11/Apr/25 9:36 PM</t>
   </si>
   <si>
+    <t>27/Apr/25 9:30 PM</t>
+  </si>
+  <si>
     <t>Ensure all standard sorting options are present in the dropdown menu.</t>
   </si>
   <si>
@@ -195,6 +231,9 @@
     <t>DEPI-192</t>
   </si>
   <si>
+    <t>12/Apr/25 2:43 AM</t>
+  </si>
+  <si>
     <t>Ensure each product in the inventory list displays a clear and accurate product title.</t>
   </si>
   <si>
@@ -217,6 +256,12 @@
   </si>
   <si>
     <t>11/Apr/25 8:08 PM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:09 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:14 AM</t>
   </si>
   <si>
     <t>This test case verifies the system behavior and responsiveness when logging in and navigating through the application using the user account designed to simulate performance issues: {{performance_glitch_user}}.</t>
@@ -251,6 +296,12 @@
     <t>11/Apr/25 6:32 PM</t>
   </si>
   <si>
+    <t>27/Apr/25 9:29 PM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:46 AM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> varify that when select or  change the sorting type   the Product List will be updated instantly and dynamically (without page relaod)</t>
   </si>
   <si>
@@ -279,6 +330,9 @@
     <t>11/Apr/25 6:27 PM</t>
   </si>
   <si>
+    <t>12/Apr/25 2:45 AM</t>
+  </si>
+  <si>
     <t>when the user try to sorting items by (name , price) filter should response to the option</t>
   </si>
   <si>
@@ -301,6 +355,12 @@
   </si>
   <si>
     <t>11/Apr/25 5:56 PM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:22 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:23 AM</t>
   </si>
   <si>
     <t>|swag labs - Verify that leaving required fields empty shows validation errors|</t>
@@ -332,6 +392,9 @@
     <t>11/Apr/25 5:37 PM</t>
   </si>
   <si>
+    <t>12/Apr/25 2:24 AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">when user try to back to review or edit his items in cart cancel button navigate him to it </t>
   </si>
   <si>
@@ -359,6 +422,9 @@
   </si>
   <si>
     <t>11/Apr/25 5:24 PM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:19 AM</t>
   </si>
   <si>
     <t>After logging out of the application, clicking the browser's *Back* button incorrectly navigates the user back to the *Product Catalog page* while still appearing to be signed in. This behavior violates expected session handling and allows access to a protected page after logout.</t>
@@ -434,6 +500,9 @@
     <t>11/Apr/25 5:01 PM</t>
   </si>
   <si>
+    <t>12/Apr/25 5:28 AM</t>
+  </si>
+  <si>
     <t>Verify that the "Checkout" option  navigates  the user to enter shipping details</t>
   </si>
   <si>
@@ -509,6 +578,9 @@
     <t>11/Apr/25 4:54 PM</t>
   </si>
   <si>
+    <t>12/Apr/25 2:17 AM</t>
+  </si>
+  <si>
     <t>This test verifies that users are not allowed to log in with an incorrect password and that an appropriate error message is displayed.</t>
   </si>
   <si>
@@ -531,6 +603,12 @@
   </si>
   <si>
     <t>11/Apr/25 10:29 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 3:56 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:13 AM</t>
   </si>
   <si>
     <t>Verify removing product from one location reflects on all others</t>
@@ -556,6 +634,9 @@
     <t>11/Apr/25 10:25 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:36 AM</t>
+  </si>
+  <si>
     <t>Verify user can remove product from the Cart page</t>
   </si>
   <si>
@@ -569,9 +650,6 @@
 # Click on "Remove"</t>
   </si>
   <si>
-    <t>SwagLabs - Add Product to Cart - Verify the product in front of it (add it to cart)</t>
-  </si>
-  <si>
     <t>DEPI-125</t>
   </si>
   <si>
@@ -579,6 +657,9 @@
   </si>
   <si>
     <t>11/Apr/25 2:41 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 5:02 AM</t>
   </si>
   <si>
     <t>Verify the product in front of it ( add it to cart )</t>
@@ -623,6 +704,9 @@
     <t>11/Apr/25 2:16 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:48 AM</t>
+  </si>
+  <si>
     <t>Verify product information if it is related to the image.</t>
   </si>
   <si>
@@ -644,6 +728,9 @@
     <t>11/Apr/25 2:08 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 5:04 AM</t>
+  </si>
+  <si>
     <t>The site verification is not freezing or taking time to open.</t>
   </si>
   <si>
@@ -665,6 +752,12 @@
     <t>11/Apr/25 2:00 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 5:18 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 5:19 AM</t>
+  </si>
+  <si>
     <t>Ensure for each product photo is visible and different</t>
   </si>
   <si>
@@ -687,6 +780,9 @@
     <t>11/Apr/25 1:45 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 5:20 AM</t>
+  </si>
+  <si>
     <t>insure the sorting is visible in site and all function is Run form Name (A TO Z) and  (Z TO A ) and Price ( high - low ) and ( low - high )</t>
   </si>
   <si>
@@ -729,6 +825,9 @@
     <t>11/Apr/25 1:18 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:42 AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">insure each product in the inventory list show title correct  </t>
   </si>
   <si>
@@ -815,6 +914,9 @@
   </si>
   <si>
     <t>09/Apr/25 9:25 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:11 AM</t>
   </si>
   <si>
     <t>Verify that adding a product from its detail page reflects immediately on the product listing page</t>
@@ -842,6 +944,9 @@
     <t>09/Apr/25 9:20 AM</t>
   </si>
   <si>
+    <t>27/Apr/25 9:28 PM</t>
+  </si>
+  <si>
     <t>Add a product from the detail page, then remove it from the product list</t>
   </si>
   <si>
@@ -866,6 +971,12 @@
     <t>09/Apr/25 9:16 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:29 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:35 AM</t>
+  </si>
+  <si>
     <t>Add a product from the main listing page, then remove it from the product detail page</t>
   </si>
   <si>
@@ -890,6 +1001,9 @@
     <t>09/Apr/25 9:08 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:12 AM</t>
+  </si>
+  <si>
     <t>Verify that "Reset App State" removes all items added to cart</t>
   </si>
   <si>
@@ -915,6 +1029,12 @@
     <t>09/Apr/25 9:01 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:21 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:24 AM</t>
+  </si>
+  <si>
     <t>Attempt to remove a product from the cart while offline</t>
   </si>
   <si>
@@ -936,6 +1056,9 @@
   </si>
   <si>
     <t>09/Apr/25 8:59 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:20 AM</t>
   </si>
   <si>
     <t>User removes a product and adds it back to the cart</t>
@@ -962,6 +1085,9 @@
     <t>09/Apr/25 8:56 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:19 AM</t>
+  </si>
+  <si>
     <t>Remove multiple products one by one from the cart and verify cart icon count</t>
   </si>
   <si>
@@ -984,6 +1110,9 @@
     <t>09/Apr/25 8:53 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:09 AM</t>
+  </si>
+  <si>
     <t>Remove a single product from the cart and verify cart icon updates</t>
   </si>
   <si>
@@ -1006,6 +1135,9 @@
     <t>08/Apr/25 6:46 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 2:35 AM</t>
+  </si>
+  <si>
     <t>Ensure cart still contains items after refreshing the browser</t>
   </si>
   <si>
@@ -1027,6 +1159,9 @@
     <t>08/Apr/25 6:45 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 4:15 AM</t>
+  </si>
+  <si>
     <t>Attempt to add product to cart with no internet connection</t>
   </si>
   <si>
@@ -1046,6 +1181,9 @@
   </si>
   <si>
     <t>08/Apr/25 6:43 AM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 4:10 AM</t>
   </si>
   <si>
     <t>Ensure cart items from one user do not appear in another user’s cart</t>
@@ -1073,6 +1211,12 @@
     <t>08/Apr/25 6:39 AM</t>
   </si>
   <si>
+    <t>27/Apr/25 9:33 PM</t>
+  </si>
+  <si>
+    <t>12/Apr/25 2:34 AM</t>
+  </si>
+  <si>
     <t>Verify cart retains items after user logs out and logs in again to the same account</t>
   </si>
   <si>
@@ -1097,6 +1241,9 @@
     <t>08/Apr/25 6:35 AM</t>
   </si>
   <si>
+    <t>12/Apr/25 2:33 AM</t>
+  </si>
+  <si>
     <t>Ensure cart contents persist when navigating between pages</t>
   </si>
   <si>
@@ -1151,6 +1298,9 @@
 # Sign in with any account 
 # Locate a product on the product listing page
 # Click on the "Add to Cart" button</t>
+  </si>
+  <si>
+    <t>SwagLabs  -View Product List - Verify the product in front of it (add it to cart)</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,18 +1684,20 @@
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="282" customWidth="1"/>
-    <col min="12" max="12" width="174" customWidth="1"/>
-    <col min="13" max="13" width="157" customWidth="1"/>
-    <col min="14" max="14" width="241" customWidth="1"/>
-    <col min="15" max="15" width="402" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="8" max="10" width="31" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="282" customWidth="1"/>
+    <col min="16" max="16" width="174" customWidth="1"/>
+    <col min="17" max="17" width="157" customWidth="1"/>
+    <col min="18" max="18" width="241" customWidth="1"/>
+    <col min="19" max="19" width="402" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,2030 +1746,2648 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>10386</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>10376</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>10374</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>10353</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>10347</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>10338</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>10329</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>10328</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="R9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>10324</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="R10" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>10322</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="R11" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C12">
         <v>10321</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="R12" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" t="s">
+        <v>121</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>10320</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="R13" t="s">
+        <v>127</v>
+      </c>
+      <c r="S13" t="s">
+        <v>128</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>10319</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>111</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="R14" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C15">
         <v>10318</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>137</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="R15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <v>10317</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="R16" t="s">
+        <v>145</v>
+      </c>
+      <c r="S16" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C17">
         <v>10314</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="O17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" t="s">
+        <v>153</v>
+      </c>
+      <c r="S17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>10313</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R18" t="s">
+        <v>161</v>
+      </c>
+      <c r="S18" t="s">
+        <v>162</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C19">
         <v>10288</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>166</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="R19" t="s">
+        <v>169</v>
+      </c>
+      <c r="S19" t="s">
+        <v>170</v>
+      </c>
+      <c r="T19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C20">
         <v>10287</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="O20" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="R20" t="s">
+        <v>176</v>
+      </c>
+      <c r="S20" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C21">
         <v>10280</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="O21" t="s">
-        <v>157</v>
-      </c>
-      <c r="P21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="R21" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C22">
         <v>10279</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
-      </c>
-      <c r="P22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="R22" t="s">
+        <v>189</v>
+      </c>
+      <c r="S22" t="s">
+        <v>190</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C23">
         <v>10278</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>194</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="O23" t="s">
-        <v>169</v>
-      </c>
-      <c r="P23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="R23" t="s">
+        <v>196</v>
+      </c>
+      <c r="S23" t="s">
+        <v>197</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <v>10277</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>201</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="O24" t="s">
-        <v>175</v>
-      </c>
-      <c r="P24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="R24" t="s">
+        <v>203</v>
+      </c>
+      <c r="S24" t="s">
+        <v>204</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C25">
         <v>10276</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>208</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="O25" t="s">
-        <v>181</v>
-      </c>
-      <c r="P25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="R25" t="s">
+        <v>211</v>
+      </c>
+      <c r="S25" t="s">
+        <v>212</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C26">
         <v>10275</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>187</v>
-      </c>
-      <c r="P26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="R26" t="s">
+        <v>218</v>
+      </c>
+      <c r="S26" t="s">
+        <v>219</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C27">
         <v>10274</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="O27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="R27" t="s">
+        <v>224</v>
+      </c>
+      <c r="S27" t="s">
+        <v>225</v>
+      </c>
+      <c r="T27" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C28">
         <v>10273</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s">
-        <v>197</v>
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>229</v>
       </c>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>199</v>
-      </c>
-      <c r="P28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="R28" t="s">
+        <v>231</v>
+      </c>
+      <c r="S28" t="s">
+        <v>232</v>
+      </c>
+      <c r="T28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C29">
         <v>10270</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="O29" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="R29" t="s">
+        <v>238</v>
+      </c>
+      <c r="S29" t="s">
+        <v>239</v>
+      </c>
+      <c r="T29" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="C30">
         <v>10236</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="O30" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="R30" t="s">
+        <v>245</v>
+      </c>
+      <c r="S30" t="s">
+        <v>246</v>
+      </c>
+      <c r="T30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C31">
         <v>10235</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>73</v>
       </c>
       <c r="N31" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="O31" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="P31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="R31" t="s">
+        <v>252</v>
+      </c>
+      <c r="S31" t="s">
+        <v>246</v>
+      </c>
+      <c r="T31" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C32">
         <v>10151</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="R32" t="s">
+        <v>258</v>
+      </c>
+      <c r="S32" t="s">
+        <v>259</v>
+      </c>
+      <c r="T32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="C33">
         <v>10150</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>229</v>
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" t="s">
+        <v>263</v>
       </c>
       <c r="N33" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="O33" t="s">
-        <v>231</v>
-      </c>
-      <c r="P33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="R33" t="s">
+        <v>265</v>
+      </c>
+      <c r="S33" t="s">
+        <v>266</v>
+      </c>
+      <c r="T33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="C34">
         <v>10149</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>235</v>
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>270</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="O34" t="s">
-        <v>237</v>
-      </c>
-      <c r="P34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="R34" t="s">
+        <v>273</v>
+      </c>
+      <c r="S34" t="s">
+        <v>274</v>
+      </c>
+      <c r="T34" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C35">
         <v>10148</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>241</v>
+        <v>277</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="O35" t="s">
-        <v>243</v>
-      </c>
-      <c r="P35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="R35" t="s">
+        <v>280</v>
+      </c>
+      <c r="S35" t="s">
+        <v>281</v>
+      </c>
+      <c r="T35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="C36">
         <v>10147</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>284</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>285</v>
       </c>
       <c r="N36" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="O36" t="s">
-        <v>249</v>
-      </c>
-      <c r="P36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="R36" t="s">
+        <v>288</v>
+      </c>
+      <c r="S36" t="s">
+        <v>289</v>
+      </c>
+      <c r="T36" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C37">
         <v>10146</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>253</v>
+        <v>292</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>166</v>
       </c>
       <c r="N37" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="O37" t="s">
-        <v>255</v>
-      </c>
-      <c r="P37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="R37" t="s">
+        <v>295</v>
+      </c>
+      <c r="S37" t="s">
+        <v>296</v>
+      </c>
+      <c r="T37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="C38">
         <v>10145</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="O38" t="s">
-        <v>261</v>
-      </c>
-      <c r="P38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="R38" t="s">
+        <v>302</v>
+      </c>
+      <c r="S38" t="s">
+        <v>303</v>
+      </c>
+      <c r="T38" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C39">
         <v>10144</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>265</v>
+        <v>306</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="O39" t="s">
-        <v>267</v>
-      </c>
-      <c r="P39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="R39" t="s">
+        <v>309</v>
+      </c>
+      <c r="S39" t="s">
+        <v>310</v>
+      </c>
+      <c r="T39" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="C40">
         <v>10127</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="O40" t="s">
-        <v>273</v>
-      </c>
-      <c r="P40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="R40" t="s">
+        <v>316</v>
+      </c>
+      <c r="S40" t="s">
+        <v>317</v>
+      </c>
+      <c r="T40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="C41">
         <v>10126</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>277</v>
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>321</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="O41" t="s">
-        <v>279</v>
-      </c>
-      <c r="P41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="R41" t="s">
+        <v>323</v>
+      </c>
+      <c r="S41" t="s">
+        <v>324</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="C42">
         <v>10125</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I42" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>283</v>
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="O42" t="s">
-        <v>285</v>
-      </c>
-      <c r="P42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="R42" t="s">
+        <v>330</v>
+      </c>
+      <c r="S42" t="s">
+        <v>331</v>
+      </c>
+      <c r="T42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="C43">
         <v>10124</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>289</v>
+        <v>334</v>
+      </c>
+      <c r="L43" t="s">
+        <v>335</v>
       </c>
       <c r="N43" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="O43" t="s">
-        <v>291</v>
-      </c>
-      <c r="P43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="R43" t="s">
+        <v>338</v>
+      </c>
+      <c r="S43" t="s">
+        <v>339</v>
+      </c>
+      <c r="T43" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="C44">
         <v>10123</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>295</v>
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
       </c>
       <c r="N44" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="O44" t="s">
-        <v>297</v>
-      </c>
-      <c r="P44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="R44" t="s">
+        <v>345</v>
+      </c>
+      <c r="S44" t="s">
+        <v>346</v>
+      </c>
+      <c r="T44" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="C45">
         <v>10122</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>301</v>
+        <v>349</v>
+      </c>
+      <c r="L45" t="s">
+        <v>335</v>
       </c>
       <c r="N45" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="O45" t="s">
-        <v>303</v>
-      </c>
-      <c r="P45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="R45" t="s">
+        <v>351</v>
+      </c>
+      <c r="S45" t="s">
+        <v>352</v>
+      </c>
+      <c r="T45" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="C46">
         <v>10121</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K46" t="s">
-        <v>307</v>
+        <v>355</v>
+      </c>
+      <c r="L46" t="s">
+        <v>335</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
       </c>
       <c r="N46" t="s">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="O46" t="s">
-        <v>309</v>
-      </c>
-      <c r="P46" t="s">
-        <v>19</v>
+        <v>356</v>
+      </c>
+      <c r="R46" t="s">
+        <v>357</v>
+      </c>
+      <c r="S46" t="s">
+        <v>358</v>
+      </c>
+      <c r="T46" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
